--- a/tools/src/test/java/com/gitee/qdbp/tools/excel/beans/现金流算法-测试数据.xlsx
+++ b/tools/src/test/java/com/gitee/qdbp/tools/excel/beans/现金流算法-测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23055" windowHeight="10365" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="转换规则" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="135">
   <si>
     <t>名称</t>
   </si>
@@ -151,46 +151,193 @@
     <t>start</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>全局变量</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.349986266670736"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.349986266670736"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.349986266670736"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.349986266670736"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alue</t>
+    </r>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>变量值</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>平台时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>latData</t>
+    </r>
+  </si>
+  <si>
     <t>利率表</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>idx</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
     <t>effictiveDate</t>
   </si>
   <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>利率</t>
   </si>
   <si>
     <t>生效日</t>
   </si>
   <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>@platDate-2M</t>
-  </si>
-  <si>
-    <t>@platDate-2d</t>
-  </si>
-  <si>
-    <t>@platDate+1M+5d</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platDate-2M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platDate-2d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI Light"/>
+        <charset val="134"/>
+      </rPr>
+      <t>platDate+1M+5d</t>
+    </r>
   </si>
   <si>
     <t>没有field, 只取C列生成List&lt;Date&gt;列表</t>
@@ -311,6 +458,9 @@
   </si>
   <si>
     <t>月</t>
+  </si>
+  <si>
+    <t>按季付息</t>
   </si>
   <si>
     <t>firstPayDate</t>
@@ -402,15 +552,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#\ ###0"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,13 +576,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Microsoft YaHei UI Light"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.349986266670736"/>
       <name val="Microsoft YaHei UI Light"/>
       <charset val="134"/>
     </font>
@@ -443,9 +605,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,23 +649,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +681,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,85 +742,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,187 +770,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,24 +981,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,7 +994,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,11 +1055,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,10 +1084,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,137 +1096,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1287,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1134,7 +1311,7 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,20 +1320,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,40 +1651,40 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.8888888888889" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="67" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="31" customFormat="1" spans="1:4">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -1524,13 +1692,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -1538,13 +1706,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -1552,55 +1720,55 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -1608,13 +1776,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -1622,44 +1790,44 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1667,35 +1835,35 @@
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1706,360 +1874,434 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.66666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="24">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="20" t="s">
+      <c r="C8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="21" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="C10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C11" s="27">
         <v>0.21</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.24</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.22</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
+      <c r="D11" s="28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.24</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="D19" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C20" s="24">
         <v>43466</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="D20" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C21" s="24">
         <v>43500</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="11">
-        <v>3</v>
-      </c>
-      <c r="C16" s="26">
-        <v>43501</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="11">
-        <v>4</v>
-      </c>
-      <c r="C17" s="26">
-        <v>43502</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5</v>
-      </c>
-      <c r="C18" s="26">
-        <v>43503</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="11">
-        <v>6</v>
-      </c>
-      <c r="C19" s="26">
-        <v>43504</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="11">
-        <v>7</v>
-      </c>
-      <c r="C20" s="26">
-        <v>43560</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="11">
-        <v>8</v>
-      </c>
-      <c r="C21" s="26">
-        <v>43586</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>63</v>
+      <c r="D21" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="11">
-        <v>9</v>
-      </c>
-      <c r="C22" s="26">
-        <v>43623</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="24">
+        <v>43501</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="11">
-        <v>10</v>
-      </c>
-      <c r="C23" s="26">
-        <v>43721</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="24">
+        <v>43502</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="11">
-        <v>11</v>
-      </c>
-      <c r="C24" s="26">
-        <v>43739</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="24">
+        <v>43503</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" s="11">
-        <v>12</v>
-      </c>
-      <c r="C25" s="26">
-        <v>43740</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="24">
+        <v>43504</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="11">
-        <v>13</v>
-      </c>
-      <c r="C26" s="26">
-        <v>43741</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="C26" s="24">
+        <v>43560</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="11">
-        <v>14</v>
-      </c>
-      <c r="C27" s="26">
-        <v>43742</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="C27" s="24">
+        <v>43586</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="11">
+        <v>9</v>
+      </c>
+      <c r="C28" s="24">
+        <v>43623</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="11">
+        <v>10</v>
+      </c>
+      <c r="C29" s="24">
+        <v>43721</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="11">
+        <v>11</v>
+      </c>
+      <c r="C30" s="24">
+        <v>43739</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="11">
+        <v>12</v>
+      </c>
+      <c r="C31" s="24">
+        <v>43740</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="11">
+        <v>13</v>
+      </c>
+      <c r="C32" s="24">
+        <v>43741</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="11">
+        <v>14</v>
+      </c>
+      <c r="C33" s="24">
+        <v>43742</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="11">
         <v>15</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C34" s="24">
         <v>43745</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>66</v>
+      <c r="D34" s="30" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2067,22 +2309,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.11111111111111" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.1111111111111" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2091,42 +2333,42 @@
         <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I2" s="19"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
@@ -2151,34 +2393,34 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -2187,54 +2429,54 @@
         <v>400000000</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H5" s="13">
         <v>21</v>
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
@@ -2259,50 +2501,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F9" s="12">
         <v>600000</v>
@@ -2311,40 +2553,40 @@
         <v>3</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="13">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
@@ -2360,29 +2602,29 @@
         <v>10</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>39</v>
@@ -2392,19 +2634,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -2423,10 +2665,10 @@
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2437,19 +2679,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -2458,7 +2700,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="8" t="s">
@@ -2477,19 +2719,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -2498,7 +2740,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -2507,19 +2749,19 @@
         <v>50000000</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
@@ -2528,19 +2770,19 @@
         <v>70000000</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="11">
         <v>3</v>
@@ -2549,19 +2791,19 @@
         <v>70000000</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="11">
         <v>4</v>
@@ -2570,19 +2812,19 @@
         <v>70000000</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="11">
         <v>5</v>
@@ -2591,19 +2833,19 @@
         <v>70000000</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="11">
         <v>6</v>
@@ -2612,10 +2854,10 @@
         <v>70000000</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -2636,10 +2878,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2650,16 +2892,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -2669,7 +2911,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="8" t="s">
@@ -2686,16 +2928,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -2705,16 +2947,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="11">
         <v>1</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -2724,16 +2966,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -2743,16 +2985,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="11">
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -2762,16 +3004,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="11">
         <v>4</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -2788,20 +3030,19 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="39" ht="13.5"/>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13">
+      <formula1>"固定费用,按费率"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>"等额本息,等额本金,到期还本,按月还本,按季还本,按半年还本,按年还本,满月还本,满季还本,满半年还本,满年还本,指定工作日还本,按固定周期计息,不规则还款,过手支付,固定摊还"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 I9">
       <formula1>"到期一次性,按月付息,按季付息,按半年付息,按年付息,满月付息,满季付息,满半年付息,满年付息,指定工作日付息,按固定周期计息"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 H9">
       <formula1>"天,月,年"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13">
-      <formula1>"固定费用,按费率"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
       <formula1>"是,否"</formula1>
@@ -2824,7 +3065,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -2843,7 +3084,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -2862,7 +3103,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -2881,7 +3122,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
